--- a/data/minimal_nutrition_intake.xlsx
+++ b/data/minimal_nutrition_intake.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reina\Documents\College\00 - Senior Projects\foodcountant\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3BDAE-7D37-443E-9A52-DE31C87ABAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9A7BE7-8AB7-46B6-B082-4478807C982C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9C84DA47-F3F5-43AB-96FA-4A68CFF3DD8B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9C84DA47-F3F5-43AB-96FA-4A68CFF3DD8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimal Nutrition Intake" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Vitamin C (mg)</t>
   </si>
   <si>
-    <t>Vitamin D (D2 + D3) (mcg)</t>
-  </si>
-  <si>
     <t>Vitamin E (alpha-tocopherol) (mg)</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Iron (mg)</t>
+  </si>
+  <si>
+    <t>Vitamin D (mcg)</t>
   </si>
 </sst>
 </file>
@@ -497,20 +497,20 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -549,45 +549,45 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>14</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>31</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>51</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>71</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>31</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>51</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>71</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>19</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>31</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>14</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>31</v>
